--- a/outputFile/outputALL.xlsx
+++ b/outputFile/outputALL.xlsx
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4533333333333334</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3750000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4615384615384615</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4324324324324324</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5925925925925927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5357142857142858</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4680851063829788</v>
+        <v>0.5142857142857143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.4324324324324324</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3720930232558139</v>
+        <v>0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.553191489361702</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4571428571428572</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3076923076923078</v>
+        <v>0.25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1875</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4375</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4255319148936171</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.32</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3636363636363637</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1090909090909091</v>
+        <v>0.16</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08333333333333334</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4696969696969696</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4233576642335766</v>
+        <v>0.6021505376344085</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.48</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32</v>
+        <v>0.05555555555555556</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2608695652173912</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2809917355371901</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3357664233576643</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07317073170731708</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1190476190476191</v>
+        <v>0.1395348837209303</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.6376811594202899</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.42</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
   </sheetData>
